--- a/SQL 設計.xlsx
+++ b/SQL 設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\yujin\Documents\GitHub\My_blog_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8BB796-CFF8-4B01-BA7B-AC856ABD98A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F43690-D102-4447-889E-4E2B3B8742A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="23610" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>postday</t>
     <phoneticPr fontId="1"/>
@@ -202,18 +202,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Note</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>note_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>related_url</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -240,6 +232,16 @@
   <si>
     <t>top</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cagtegory_count</t>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>note_day</t>
   </si>
 </sst>
 </file>
@@ -566,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -578,8 +580,7 @@
     <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.125" customWidth="1"/>
+    <col min="11" max="17" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -619,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -634,6 +635,9 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" t="s">
@@ -754,44 +758,44 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4">
